--- a/Columns.xlsx
+++ b/Columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkochems\Documents\Promotion\Bearbeitung\Daten_Berechnungen\Lastmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93B86C3E-6B55-45FC-9056-B23B7BD20046}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A20102-A4A5-4224-AFFA-8AE4950C696C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Columns.xlsx
+++ b/Columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\DR_mod\DR_Potentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6C32C-9844-42B1-A564-39C10B65A3D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BA56B0-8303-4947-8670-14CB48A8D7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="444">
   <si>
     <t>Gruppe</t>
   </si>
@@ -1204,9 +1204,6 @@
     <t>Investitionsausgaben</t>
   </si>
   <si>
-    <t>Eignung</t>
-  </si>
-  <si>
     <t>Maximallast</t>
   </si>
   <si>
@@ -1267,9 +1264,6 @@
     <t>variable Kosten Lastverzicht</t>
   </si>
   <si>
-    <t>nicht spezifiziert</t>
-  </si>
-  <si>
     <t>Potenzial positiv Mittel Lastverzicht</t>
   </si>
   <si>
@@ -1282,9 +1276,6 @@
     <t>Verschiebung</t>
   </si>
   <si>
-    <t>Verzicht / Verschiebung / nicht spezifiziert</t>
-  </si>
-  <si>
     <t>Verzicht</t>
   </si>
   <si>
@@ -1292,6 +1283,75 @@
   </si>
   <si>
     <t>maximale Abrufhäufigkeit pro Jahr Lastverzicht</t>
+  </si>
+  <si>
+    <t>Aggregationsregel</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Verzicht / Verschiebung / drop</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>Fundstelle Maximallast</t>
+  </si>
+  <si>
+    <t>Fundstelle Minimalauslastung</t>
+  </si>
+  <si>
+    <t>Fundstelle Minimallast</t>
+  </si>
+  <si>
+    <t>Fundstelle Potenzial negativ Mittel</t>
+  </si>
+  <si>
+    <t>Fundstelle Potenzial negativ min</t>
+  </si>
+  <si>
+    <t>Fundstelle Potenzial negativ max</t>
+  </si>
+  <si>
+    <t>Fundstelle Potenzial positiv Mittel</t>
+  </si>
+  <si>
+    <t>Fundstelle Potenzial positiv min</t>
+  </si>
+  <si>
+    <t>Fundstelle Potenzial positiv max</t>
+  </si>
+  <si>
+    <t>Fundstelle Schaltdauer positiv</t>
+  </si>
+  <si>
+    <t>Fundstelle Schaltdauer negativ</t>
+  </si>
+  <si>
+    <t>Fundstelle Durchschnittsleistung</t>
+  </si>
+  <si>
+    <t>Fundstelle maximale Abrufhäufigkeit pro Jahr</t>
+  </si>
+  <si>
+    <t>Fundstelle maximale Abrufhäufigkeit pro Woche</t>
+  </si>
+  <si>
+    <t>Fundstelle variable Kosten</t>
+  </si>
+  <si>
+    <t>Fundstelle flexibilisierbarer Leistungsanteil</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1335,30 +1395,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -1435,6 +1482,44 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1449,12 +1534,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D07D76C7-2024-4812-A583-9AEA703D99BF}" name="Tabelle2" displayName="Tabelle2" ref="A1:C392" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:C392" xr:uid="{5E9F0B9F-2BE9-4EAB-99B9-EE5EE1F96A82}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{354C2B9C-026C-4A8E-BFA8-A99211BC8AE4}" name="Spaltenname" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2971FB75-8976-49B2-8AA0-40D58A8C0143}" name="Gruppe" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{AB80D3B8-0003-48F6-8701-E0CEE270263C}" name="Verzicht / Verschiebung / nicht spezifiziert" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D07D76C7-2024-4812-A583-9AEA703D99BF}" name="Tabelle2" displayName="Tabelle2" ref="A1:D392" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D392" xr:uid="{5E9F0B9F-2BE9-4EAB-99B9-EE5EE1F96A82}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{354C2B9C-026C-4A8E-BFA8-A99211BC8AE4}" name="Spaltenname" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2971FB75-8976-49B2-8AA0-40D58A8C0143}" name="Gruppe" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AB80D3B8-0003-48F6-8701-E0CEE270263C}" name="Verzicht / Verschiebung / drop" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3E84D8F4-A1D1-4685-92DE-F4B7F6FDBBBB}" name="Aggregationsregel" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1781,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C392"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,9 +1878,10 @@
     <col min="1" max="1" width="51.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1802,10 +1889,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1813,10 +1903,13 @@
         <v>387</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1824,10 +1917,13 @@
         <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1835,10 +1931,13 @@
         <v>387</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1846,10 +1945,13 @@
         <v>387</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1857,10 +1959,13 @@
         <v>387</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1868,10 +1973,13 @@
         <v>387</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1879,10 +1987,13 @@
         <v>387</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1890,10 +2001,13 @@
         <v>387</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1901,10 +2015,13 @@
         <v>387</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1912,10 +2029,13 @@
         <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1923,10 +2043,13 @@
         <v>389</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1934,10 +2057,13 @@
         <v>389</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1945,10 +2071,13 @@
         <v>389</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1956,10 +2085,13 @@
         <v>389</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1967,10 +2099,13 @@
         <v>389</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1978,10 +2113,13 @@
         <v>389</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1989,10 +2127,13 @@
         <v>389</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2000,10 +2141,13 @@
         <v>390</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,10 +2155,13 @@
         <v>391</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2022,10 +2169,13 @@
         <v>389</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2033,10 +2183,13 @@
         <v>392</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2044,10 +2197,13 @@
         <v>392</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2055,10 +2211,13 @@
         <v>392</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2066,10 +2225,13 @@
         <v>392</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2077,10 +2239,13 @@
         <v>392</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -2088,10 +2253,13 @@
         <v>392</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2099,10 +2267,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -2110,10 +2281,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -2121,10 +2295,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -2132,10 +2309,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2143,10 +2323,13 @@
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -2154,10 +2337,13 @@
         <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -2165,10 +2351,13 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2176,10 +2365,13 @@
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2187,10 +2379,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2198,10 +2393,13 @@
         <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2209,10 +2407,13 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2220,10 +2421,13 @@
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2231,10 +2435,13 @@
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2242,10 +2449,13 @@
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2253,10 +2463,13 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -2264,10 +2477,13 @@
         <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2275,10 +2491,13 @@
         <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2286,10 +2505,13 @@
         <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2297,10 +2519,13 @@
         <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2308,10 +2533,13 @@
         <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2319,10 +2547,13 @@
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2330,10 +2561,13 @@
         <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2341,10 +2575,13 @@
         <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -2352,10 +2589,13 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2363,10 +2603,13 @@
         <v>28</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2374,10 +2617,13 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -2385,10 +2631,13 @@
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2396,10 +2645,13 @@
         <v>28</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -2407,10 +2659,13 @@
         <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2418,10 +2673,13 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -2429,10 +2687,13 @@
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2440,10 +2701,13 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2451,10 +2715,13 @@
         <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -2462,10 +2729,13 @@
         <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2473,10 +2743,13 @@
         <v>389</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -2484,10 +2757,13 @@
         <v>389</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -2495,10 +2771,13 @@
         <v>389</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2506,10 +2785,13 @@
         <v>387</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -2517,10 +2799,13 @@
         <v>388</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2528,10 +2813,13 @@
         <v>389</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2539,10 +2827,13 @@
         <v>389</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -2550,10 +2841,13 @@
         <v>389</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -2561,10 +2855,13 @@
         <v>390</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -2572,10 +2869,13 @@
         <v>391</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -2583,10 +2883,13 @@
         <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -2594,10 +2897,13 @@
         <v>389</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -2605,10 +2911,13 @@
         <v>393</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -2616,142 +2925,181 @@
         <v>389</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>394</v>
+      <c r="B76" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>394</v>
+      <c r="B77" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>394</v>
+      <c r="B78" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>84</v>
       </c>
@@ -2759,175 +3107,223 @@
         <v>389</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>402</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>403</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>391</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>404</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>391</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>390</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>406</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>99</v>
       </c>
@@ -2935,10 +3331,13 @@
         <v>389</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>100</v>
       </c>
@@ -2946,21 +3345,27 @@
         <v>389</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
@@ -2968,10 +3373,13 @@
         <v>389</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>102</v>
       </c>
@@ -2979,10 +3387,13 @@
         <v>389</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>103</v>
       </c>
@@ -2990,21 +3401,27 @@
         <v>393</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>389</v>
+      <c r="B110" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>105</v>
       </c>
@@ -3012,43 +3429,55 @@
         <v>389</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>394</v>
+      <c r="B112" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>394</v>
+      <c r="B113" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>394</v>
+      <c r="B114" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>109</v>
       </c>
@@ -3056,10 +3485,13 @@
         <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>110</v>
       </c>
@@ -3067,10 +3499,13 @@
         <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -3078,10 +3513,13 @@
         <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>112</v>
       </c>
@@ -3089,604 +3527,769 @@
         <v>109</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>167</v>
       </c>
@@ -3694,813 +4297,1035 @@
         <v>389</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>241</v>
       </c>
@@ -4508,175 +5333,223 @@
         <v>389</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>389</v>
+      <c r="B259" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>257</v>
       </c>
@@ -4684,186 +5557,237 @@
         <v>391</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>389</v>
+      <c r="B273" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>274</v>
       </c>
@@ -4871,10 +5795,13 @@
         <v>389</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>275</v>
       </c>
@@ -4882,10 +5809,13 @@
         <v>389</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>276</v>
       </c>
@@ -4893,120 +5823,153 @@
         <v>389</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>287</v>
       </c>
@@ -5014,10 +5977,13 @@
         <v>389</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>288</v>
       </c>
@@ -5025,10 +5991,13 @@
         <v>391</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>289</v>
       </c>
@@ -5036,10 +6005,13 @@
         <v>391</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>290</v>
       </c>
@@ -5047,65 +6019,83 @@
         <v>391</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>296</v>
       </c>
@@ -5113,21 +6103,27 @@
         <v>391</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>298</v>
       </c>
@@ -5135,10 +6131,13 @@
         <v>389</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>299</v>
       </c>
@@ -5146,10 +6145,13 @@
         <v>389</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>300</v>
       </c>
@@ -5157,10 +6159,13 @@
         <v>389</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>301</v>
       </c>
@@ -5168,10 +6173,13 @@
         <v>389</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>302</v>
       </c>
@@ -5179,10 +6187,13 @@
         <v>389</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>303</v>
       </c>
@@ -5190,10 +6201,13 @@
         <v>389</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>304</v>
       </c>
@@ -5201,10 +6215,13 @@
         <v>391</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>305</v>
       </c>
@@ -5212,10 +6229,13 @@
         <v>389</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>306</v>
       </c>
@@ -5223,10 +6243,13 @@
         <v>390</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>307</v>
       </c>
@@ -5234,10 +6257,13 @@
         <v>390</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>308</v>
       </c>
@@ -5245,10 +6271,13 @@
         <v>390</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>309</v>
       </c>
@@ -5256,10 +6285,13 @@
         <v>390</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>310</v>
       </c>
@@ -5267,10 +6299,13 @@
         <v>390</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>311</v>
       </c>
@@ -5278,10 +6313,13 @@
         <v>390</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>312</v>
       </c>
@@ -5289,219 +6327,279 @@
         <v>390</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>332</v>
       </c>
@@ -5509,10 +6607,13 @@
         <v>389</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>333</v>
       </c>
@@ -5520,10 +6621,13 @@
         <v>389</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>334</v>
       </c>
@@ -5531,10 +6635,13 @@
         <v>389</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>335</v>
       </c>
@@ -5542,208 +6649,265 @@
         <v>389</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>354</v>
       </c>
@@ -5751,10 +6915,13 @@
         <v>393</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>355</v>
       </c>
@@ -5762,10 +6929,13 @@
         <v>393</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>356</v>
       </c>
@@ -5773,10 +6943,13 @@
         <v>389</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>357</v>
       </c>
@@ -5784,10 +6957,13 @@
         <v>389</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>358</v>
       </c>
@@ -5795,10 +6971,13 @@
         <v>389</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>359</v>
       </c>
@@ -5806,10 +6985,13 @@
         <v>389</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>360</v>
       </c>
@@ -5817,10 +6999,13 @@
         <v>389</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>361</v>
       </c>
@@ -5828,10 +7013,13 @@
         <v>389</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>362</v>
       </c>
@@ -5839,10 +7027,13 @@
         <v>389</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>363</v>
       </c>
@@ -5850,10 +7041,13 @@
         <v>389</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>364</v>
       </c>
@@ -5861,10 +7055,13 @@
         <v>389</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>365</v>
       </c>
@@ -5872,10 +7069,13 @@
         <v>389</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>366</v>
       </c>
@@ -5883,10 +7083,13 @@
         <v>389</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>367</v>
       </c>
@@ -5894,10 +7097,13 @@
         <v>388</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>368</v>
       </c>
@@ -5905,10 +7111,13 @@
         <v>388</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>369</v>
       </c>
@@ -5916,43 +7125,55 @@
         <v>388</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>373</v>
       </c>
@@ -5960,21 +7181,27 @@
         <v>388</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>375</v>
       </c>
@@ -5982,10 +7209,13 @@
         <v>388</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>376</v>
       </c>
@@ -5993,21 +7223,27 @@
         <v>388</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>378</v>
       </c>
@@ -6015,21 +7251,27 @@
         <v>388</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>380</v>
       </c>
@@ -6037,10 +7279,13 @@
         <v>388</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>381</v>
       </c>
@@ -6048,10 +7293,13 @@
         <v>388</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>382</v>
       </c>
@@ -6059,10 +7307,13 @@
         <v>388</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>383</v>
       </c>
@@ -6070,10 +7321,13 @@
         <v>389</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>384</v>
       </c>
@@ -6081,10 +7335,13 @@
         <v>389</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>385</v>
       </c>
@@ -6092,10 +7349,13 @@
         <v>390</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>386</v>
       </c>
@@ -6103,7 +7363,10 @@
         <v>390</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>415</v>
+        <v>425</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/Columns.xlsx
+++ b/Columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\DR_mod\DR_Potentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BA56B0-8303-4947-8670-14CB48A8D7F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF308BD-34F0-4B1E-BF08-4CE087B90E29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="448">
   <si>
     <t>Gruppe</t>
   </si>
@@ -1294,9 +1294,6 @@
     <t>sum</t>
   </si>
   <si>
-    <t>Verzicht / Verschiebung / drop</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -1352,6 +1349,21 @@
   </si>
   <si>
     <t>first</t>
+  </si>
+  <si>
+    <t>Verzicht / Verschiebung / nicht spezifiziert</t>
+  </si>
+  <si>
+    <t>nicht spezifiziert</t>
+  </si>
+  <si>
+    <t>Numerisch?</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>nein</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1417,26 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1534,13 +1565,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D07D76C7-2024-4812-A583-9AEA703D99BF}" name="Tabelle2" displayName="Tabelle2" ref="A1:D392" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D392" xr:uid="{5E9F0B9F-2BE9-4EAB-99B9-EE5EE1F96A82}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{354C2B9C-026C-4A8E-BFA8-A99211BC8AE4}" name="Spaltenname" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2971FB75-8976-49B2-8AA0-40D58A8C0143}" name="Gruppe" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{AB80D3B8-0003-48F6-8701-E0CEE270263C}" name="Verzicht / Verschiebung / drop" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{3E84D8F4-A1D1-4685-92DE-F4B7F6FDBBBB}" name="Aggregationsregel" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D07D76C7-2024-4812-A583-9AEA703D99BF}" name="Tabelle2" displayName="Tabelle2" ref="A1:E392" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E392" xr:uid="{5E9F0B9F-2BE9-4EAB-99B9-EE5EE1F96A82}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{354C2B9C-026C-4A8E-BFA8-A99211BC8AE4}" name="Spaltenname" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2971FB75-8976-49B2-8AA0-40D58A8C0143}" name="Gruppe" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{DC746ADC-2D8C-4D9E-AF3F-474CC8C65D87}" name="Numerisch?" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{AB80D3B8-0003-48F6-8701-E0CEE270263C}" name="Verzicht / Verschiebung / nicht spezifiziert" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3E84D8F4-A1D1-4685-92DE-F4B7F6FDBBBB}" name="Aggregationsregel" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1867,21 +1899,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="C390" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1889,13 +1922,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1903,13 +1939,16 @@
         <v>387</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1917,13 +1956,16 @@
         <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1931,13 +1973,16 @@
         <v>387</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1945,13 +1990,16 @@
         <v>387</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1959,13 +2007,16 @@
         <v>387</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1973,13 +2024,16 @@
         <v>387</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1987,13 +2041,16 @@
         <v>387</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2001,13 +2058,16 @@
         <v>387</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2015,13 +2075,16 @@
         <v>387</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2029,13 +2092,16 @@
         <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2043,13 +2109,16 @@
         <v>389</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2057,13 +2126,16 @@
         <v>389</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2071,13 +2143,16 @@
         <v>389</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2085,13 +2160,16 @@
         <v>389</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2099,13 +2177,16 @@
         <v>389</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2113,13 +2194,16 @@
         <v>389</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2127,13 +2211,16 @@
         <v>389</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2141,13 +2228,16 @@
         <v>390</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2155,13 +2245,16 @@
         <v>391</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2169,13 +2262,16 @@
         <v>389</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2183,13 +2279,16 @@
         <v>392</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2197,13 +2296,16 @@
         <v>392</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2211,13 +2313,16 @@
         <v>392</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2225,13 +2330,16 @@
         <v>392</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2239,13 +2347,16 @@
         <v>392</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -2253,13 +2364,16 @@
         <v>392</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2267,13 +2381,16 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -2281,13 +2398,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -2295,13 +2415,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -2309,13 +2432,16 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2323,13 +2449,16 @@
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -2337,13 +2466,16 @@
         <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -2351,13 +2483,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2365,13 +2500,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2379,13 +2517,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2393,13 +2534,16 @@
         <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2407,13 +2551,16 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2421,13 +2568,16 @@
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2435,13 +2585,16 @@
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2449,13 +2602,16 @@
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2463,13 +2619,16 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -2477,13 +2636,16 @@
         <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -2491,13 +2653,16 @@
         <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -2505,13 +2670,16 @@
         <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2519,13 +2687,16 @@
         <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2533,13 +2704,16 @@
         <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -2547,13 +2721,16 @@
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2561,13 +2738,16 @@
         <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2575,13 +2755,16 @@
         <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -2589,13 +2772,16 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2603,13 +2789,16 @@
         <v>28</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2617,13 +2806,16 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -2631,13 +2823,16 @@
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2645,13 +2840,16 @@
         <v>28</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -2659,13 +2857,16 @@
         <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2673,13 +2874,16 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -2687,13 +2891,16 @@
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2701,13 +2908,16 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2715,13 +2925,16 @@
         <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -2729,13 +2942,16 @@
         <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2743,13 +2959,16 @@
         <v>389</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -2757,13 +2976,16 @@
         <v>389</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -2771,13 +2993,16 @@
         <v>389</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -2785,13 +3010,16 @@
         <v>387</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -2799,13 +3027,16 @@
         <v>388</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -2813,13 +3044,16 @@
         <v>389</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2827,13 +3061,16 @@
         <v>389</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -2841,13 +3078,16 @@
         <v>389</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -2855,13 +3095,16 @@
         <v>390</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -2869,13 +3112,16 @@
         <v>391</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -2883,13 +3129,16 @@
         <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,13 +3146,16 @@
         <v>389</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -2911,13 +3163,16 @@
         <v>393</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -2925,13 +3180,16 @@
         <v>389</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -2939,13 +3197,16 @@
         <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -2953,13 +3214,16 @@
         <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -2967,139 +3231,169 @@
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>84</v>
       </c>
@@ -3107,13 +3401,16 @@
         <v>389</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -3121,41 +3418,50 @@
         <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>87</v>
       </c>
@@ -3163,13 +3469,16 @@
         <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>88</v>
       </c>
@@ -3177,13 +3486,16 @@
         <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>89</v>
       </c>
@@ -3191,13 +3503,16 @@
         <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>90</v>
       </c>
@@ -3205,13 +3520,16 @@
         <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>91</v>
       </c>
@@ -3219,13 +3537,16 @@
         <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>92</v>
       </c>
@@ -3233,27 +3554,33 @@
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>94</v>
       </c>
@@ -3261,13 +3588,16 @@
         <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>96</v>
       </c>
@@ -3275,55 +3605,67 @@
         <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>99</v>
       </c>
@@ -3331,13 +3673,16 @@
         <v>389</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>100</v>
       </c>
@@ -3345,27 +3690,33 @@
         <v>389</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
@@ -3373,13 +3724,16 @@
         <v>389</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>102</v>
       </c>
@@ -3387,13 +3741,16 @@
         <v>389</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>103</v>
       </c>
@@ -3401,13 +3758,16 @@
         <v>393</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
@@ -3415,13 +3775,16 @@
         <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>105</v>
       </c>
@@ -3429,13 +3792,16 @@
         <v>389</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>106</v>
       </c>
@@ -3443,13 +3809,16 @@
         <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
@@ -3457,13 +3826,16 @@
         <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
@@ -3471,13 +3843,16 @@
         <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>109</v>
       </c>
@@ -3485,13 +3860,16 @@
         <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>110</v>
       </c>
@@ -3499,13 +3877,16 @@
         <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -3513,13 +3894,16 @@
         <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>112</v>
       </c>
@@ -3527,13 +3911,16 @@
         <v>109</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>113</v>
       </c>
@@ -3541,13 +3928,16 @@
         <v>394</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>114</v>
       </c>
@@ -3555,13 +3945,16 @@
         <v>394</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
@@ -3569,13 +3962,16 @@
         <v>394</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
@@ -3583,13 +3979,16 @@
         <v>394</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>117</v>
       </c>
@@ -3597,13 +3996,16 @@
         <v>394</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>118</v>
       </c>
@@ -3611,13 +4013,16 @@
         <v>394</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>119</v>
       </c>
@@ -3625,13 +4030,16 @@
         <v>394</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>120</v>
       </c>
@@ -3639,13 +4047,16 @@
         <v>394</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
@@ -3653,13 +4064,16 @@
         <v>395</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
@@ -3667,13 +4081,16 @@
         <v>395</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
@@ -3681,13 +4098,16 @@
         <v>395</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
@@ -3695,13 +4115,16 @@
         <v>395</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
@@ -3709,13 +4132,16 @@
         <v>396</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
@@ -3723,13 +4149,16 @@
         <v>396</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -3737,13 +4166,16 @@
         <v>396</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
@@ -3751,13 +4183,16 @@
         <v>396</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
@@ -3765,13 +4200,16 @@
         <v>398</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>130</v>
       </c>
@@ -3779,13 +4217,16 @@
         <v>397</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
@@ -3793,13 +4234,16 @@
         <v>397</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>132</v>
       </c>
@@ -3807,13 +4251,16 @@
         <v>397</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>133</v>
       </c>
@@ -3821,13 +4268,16 @@
         <v>397</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>134</v>
       </c>
@@ -3835,13 +4285,16 @@
         <v>397</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>135</v>
       </c>
@@ -3849,13 +4302,16 @@
         <v>397</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>136</v>
       </c>
@@ -3863,13 +4319,16 @@
         <v>397</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>137</v>
       </c>
@@ -3877,13 +4336,16 @@
         <v>397</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>138</v>
       </c>
@@ -3891,13 +4353,16 @@
         <v>397</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>139</v>
       </c>
@@ -3905,13 +4370,16 @@
         <v>397</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>140</v>
       </c>
@@ -3919,13 +4387,16 @@
         <v>397</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>141</v>
       </c>
@@ -3933,13 +4404,16 @@
         <v>397</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>142</v>
       </c>
@@ -3947,13 +4421,16 @@
         <v>397</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>143</v>
       </c>
@@ -3961,13 +4438,16 @@
         <v>397</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>144</v>
       </c>
@@ -3975,13 +4455,16 @@
         <v>407</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>145</v>
       </c>
@@ -3989,13 +4472,16 @@
         <v>407</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>146</v>
       </c>
@@ -4003,13 +4489,16 @@
         <v>407</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>147</v>
       </c>
@@ -4017,13 +4506,16 @@
         <v>407</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>148</v>
       </c>
@@ -4031,13 +4523,16 @@
         <v>407</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>149</v>
       </c>
@@ -4045,13 +4540,16 @@
         <v>407</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>150</v>
       </c>
@@ -4059,13 +4557,16 @@
         <v>407</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>151</v>
       </c>
@@ -4073,13 +4574,16 @@
         <v>407</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>152</v>
       </c>
@@ -4087,13 +4591,16 @@
         <v>407</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>153</v>
       </c>
@@ -4101,13 +4608,16 @@
         <v>408</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>154</v>
       </c>
@@ -4115,13 +4625,16 @@
         <v>408</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>155</v>
       </c>
@@ -4129,13 +4642,16 @@
         <v>408</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>156</v>
       </c>
@@ -4143,13 +4659,16 @@
         <v>408</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>157</v>
       </c>
@@ -4157,13 +4676,16 @@
         <v>408</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>158</v>
       </c>
@@ -4171,13 +4693,16 @@
         <v>408</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>159</v>
       </c>
@@ -4185,13 +4710,16 @@
         <v>408</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>160</v>
       </c>
@@ -4199,13 +4727,16 @@
         <v>408</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>161</v>
       </c>
@@ -4213,13 +4744,16 @@
         <v>408</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>162</v>
       </c>
@@ -4227,13 +4761,16 @@
         <v>397</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>163</v>
       </c>
@@ -4241,13 +4778,16 @@
         <v>397</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>164</v>
       </c>
@@ -4255,13 +4795,16 @@
         <v>397</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>165</v>
       </c>
@@ -4269,13 +4812,16 @@
         <v>397</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>166</v>
       </c>
@@ -4283,13 +4829,16 @@
         <v>397</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>167</v>
       </c>
@@ -4297,13 +4846,16 @@
         <v>389</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>168</v>
       </c>
@@ -4311,13 +4863,16 @@
         <v>407</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>169</v>
       </c>
@@ -4325,13 +4880,16 @@
         <v>407</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>170</v>
       </c>
@@ -4339,13 +4897,16 @@
         <v>407</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>171</v>
       </c>
@@ -4353,13 +4914,16 @@
         <v>407</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>172</v>
       </c>
@@ -4367,13 +4931,16 @@
         <v>407</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>173</v>
       </c>
@@ -4381,13 +4948,16 @@
         <v>408</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>174</v>
       </c>
@@ -4395,13 +4965,16 @@
         <v>408</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>175</v>
       </c>
@@ -4409,13 +4982,16 @@
         <v>398</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>176</v>
       </c>
@@ -4423,13 +4999,16 @@
         <v>398</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>177</v>
       </c>
@@ -4437,13 +5016,16 @@
         <v>398</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>178</v>
       </c>
@@ -4451,13 +5033,16 @@
         <v>398</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>179</v>
       </c>
@@ -4465,13 +5050,16 @@
         <v>414</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>180</v>
       </c>
@@ -4479,13 +5067,16 @@
         <v>398</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>181</v>
       </c>
@@ -4493,13 +5084,16 @@
         <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>182</v>
       </c>
@@ -4507,13 +5101,16 @@
         <v>398</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>183</v>
       </c>
@@ -4521,13 +5118,16 @@
         <v>414</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>184</v>
       </c>
@@ -4535,13 +5135,16 @@
         <v>398</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>185</v>
       </c>
@@ -4549,13 +5152,16 @@
         <v>414</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>186</v>
       </c>
@@ -4563,13 +5169,16 @@
         <v>398</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>187</v>
       </c>
@@ -4577,13 +5186,16 @@
         <v>415</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>188</v>
       </c>
@@ -4591,13 +5203,16 @@
         <v>398</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>189</v>
       </c>
@@ -4605,13 +5220,16 @@
         <v>398</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>190</v>
       </c>
@@ -4619,13 +5237,16 @@
         <v>414</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>191</v>
       </c>
@@ -4633,13 +5254,16 @@
         <v>398</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>192</v>
       </c>
@@ -4647,13 +5271,16 @@
         <v>414</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>193</v>
       </c>
@@ -4661,13 +5288,16 @@
         <v>398</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>194</v>
       </c>
@@ -4675,13 +5305,16 @@
         <v>414</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>195</v>
       </c>
@@ -4689,13 +5322,16 @@
         <v>398</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>196</v>
       </c>
@@ -4703,13 +5339,16 @@
         <v>414</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>197</v>
       </c>
@@ -4717,13 +5356,16 @@
         <v>398</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>198</v>
       </c>
@@ -4731,13 +5373,16 @@
         <v>414</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>199</v>
       </c>
@@ -4745,13 +5390,16 @@
         <v>409</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>200</v>
       </c>
@@ -4759,13 +5407,16 @@
         <v>409</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>201</v>
       </c>
@@ -4773,13 +5424,16 @@
         <v>415</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D207" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>202</v>
       </c>
@@ -4787,13 +5441,16 @@
         <v>409</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>203</v>
       </c>
@@ -4801,13 +5458,16 @@
         <v>415</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>204</v>
       </c>
@@ -4815,13 +5475,16 @@
         <v>409</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>205</v>
       </c>
@@ -4829,13 +5492,16 @@
         <v>415</v>
       </c>
       <c r="C211" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>206</v>
       </c>
@@ -4843,13 +5509,16 @@
         <v>409</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>207</v>
       </c>
@@ -4857,13 +5526,16 @@
         <v>415</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D213" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>208</v>
       </c>
@@ -4871,13 +5543,16 @@
         <v>409</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>209</v>
       </c>
@@ -4885,13 +5560,16 @@
         <v>415</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D215" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>210</v>
       </c>
@@ -4899,13 +5577,16 @@
         <v>409</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>211</v>
       </c>
@@ -4913,13 +5594,16 @@
         <v>415</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D217" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>212</v>
       </c>
@@ -4927,13 +5611,16 @@
         <v>409</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>213</v>
       </c>
@@ -4941,13 +5628,16 @@
         <v>415</v>
       </c>
       <c r="C219" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D219" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>214</v>
       </c>
@@ -4955,13 +5645,16 @@
         <v>409</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>215</v>
       </c>
@@ -4969,13 +5662,16 @@
         <v>415</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D221" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>216</v>
       </c>
@@ -4983,13 +5679,16 @@
         <v>410</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>217</v>
       </c>
@@ -4997,13 +5696,16 @@
         <v>410</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>218</v>
       </c>
@@ -5011,13 +5713,16 @@
         <v>416</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D224" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>219</v>
       </c>
@@ -5025,13 +5730,16 @@
         <v>410</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>220</v>
       </c>
@@ -5039,13 +5747,16 @@
         <v>416</v>
       </c>
       <c r="C226" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D226" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>221</v>
       </c>
@@ -5053,13 +5764,16 @@
         <v>410</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>222</v>
       </c>
@@ -5067,13 +5781,16 @@
         <v>416</v>
       </c>
       <c r="C228" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>223</v>
       </c>
@@ -5081,13 +5798,16 @@
         <v>410</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>224</v>
       </c>
@@ -5095,13 +5815,16 @@
         <v>416</v>
       </c>
       <c r="C230" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D230" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>225</v>
       </c>
@@ -5109,13 +5832,16 @@
         <v>410</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>226</v>
       </c>
@@ -5123,13 +5849,16 @@
         <v>416</v>
       </c>
       <c r="C232" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D232" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>227</v>
       </c>
@@ -5137,13 +5866,16 @@
         <v>410</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>228</v>
       </c>
@@ -5151,13 +5883,16 @@
         <v>416</v>
       </c>
       <c r="C234" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D234" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>229</v>
       </c>
@@ -5165,13 +5900,16 @@
         <v>410</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>230</v>
       </c>
@@ -5179,13 +5917,16 @@
         <v>416</v>
       </c>
       <c r="C236" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D236" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>231</v>
       </c>
@@ -5193,13 +5934,16 @@
         <v>410</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>232</v>
       </c>
@@ -5207,13 +5951,16 @@
         <v>416</v>
       </c>
       <c r="C238" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D238" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>233</v>
       </c>
@@ -5221,13 +5968,16 @@
         <v>398</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>234</v>
       </c>
@@ -5235,13 +5985,16 @@
         <v>416</v>
       </c>
       <c r="C240" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>235</v>
       </c>
@@ -5249,13 +6002,16 @@
         <v>398</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>236</v>
       </c>
@@ -5263,13 +6019,16 @@
         <v>416</v>
       </c>
       <c r="C242" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D242" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>237</v>
       </c>
@@ -5277,13 +6036,16 @@
         <v>398</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>238</v>
       </c>
@@ -5291,13 +6053,16 @@
         <v>416</v>
       </c>
       <c r="C244" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D244" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>239</v>
       </c>
@@ -5305,13 +6070,16 @@
         <v>398</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>240</v>
       </c>
@@ -5319,13 +6087,16 @@
         <v>398</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>241</v>
       </c>
@@ -5333,13 +6104,16 @@
         <v>389</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>242</v>
       </c>
@@ -5347,13 +6121,16 @@
         <v>409</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>243</v>
       </c>
@@ -5361,13 +6138,16 @@
         <v>415</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>244</v>
       </c>
@@ -5375,13 +6155,16 @@
         <v>409</v>
       </c>
       <c r="C250" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D250" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>245</v>
       </c>
@@ -5389,13 +6172,16 @@
         <v>409</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>246</v>
       </c>
@@ -5403,13 +6189,16 @@
         <v>409</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>247</v>
       </c>
@@ -5417,13 +6206,16 @@
         <v>415</v>
       </c>
       <c r="C253" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>248</v>
       </c>
@@ -5431,13 +6223,16 @@
         <v>409</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>249</v>
       </c>
@@ -5445,13 +6240,16 @@
         <v>409</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>250</v>
       </c>
@@ -5459,13 +6257,16 @@
         <v>410</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>251</v>
       </c>
@@ -5473,13 +6274,16 @@
         <v>416</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D257" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>252</v>
       </c>
@@ -5487,13 +6291,16 @@
         <v>410</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>253</v>
       </c>
@@ -5501,13 +6308,16 @@
         <v>253</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>254</v>
       </c>
@@ -5515,13 +6325,16 @@
         <v>399</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>255</v>
       </c>
@@ -5529,13 +6342,16 @@
         <v>399</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>256</v>
       </c>
@@ -5543,13 +6359,16 @@
         <v>399</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>257</v>
       </c>
@@ -5557,13 +6376,16 @@
         <v>391</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>258</v>
       </c>
@@ -5571,13 +6393,16 @@
         <v>411</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>259</v>
       </c>
@@ -5585,13 +6410,16 @@
         <v>411</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>260</v>
       </c>
@@ -5599,13 +6427,16 @@
         <v>411</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>261</v>
       </c>
@@ -5613,13 +6444,16 @@
         <v>400</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>262</v>
       </c>
@@ -5627,13 +6461,16 @@
         <v>419</v>
       </c>
       <c r="C268" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D268" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>263</v>
       </c>
@@ -5641,13 +6478,16 @@
         <v>400</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>264</v>
       </c>
@@ -5655,13 +6495,16 @@
         <v>419</v>
       </c>
       <c r="C270" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D270" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D270" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>265</v>
       </c>
@@ -5669,13 +6512,16 @@
         <v>400</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>266</v>
       </c>
@@ -5683,13 +6529,16 @@
         <v>419</v>
       </c>
       <c r="C272" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D272" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>267</v>
       </c>
@@ -5697,13 +6546,16 @@
         <v>267</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>268</v>
       </c>
@@ -5711,13 +6563,16 @@
         <v>401</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>269</v>
       </c>
@@ -5725,13 +6580,16 @@
         <v>401</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>270</v>
       </c>
@@ -5739,13 +6597,16 @@
         <v>401</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>271</v>
       </c>
@@ -5753,13 +6614,16 @@
         <v>401</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>272</v>
       </c>
@@ -5767,13 +6631,16 @@
         <v>401</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>273</v>
       </c>
@@ -5781,13 +6648,16 @@
         <v>401</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>274</v>
       </c>
@@ -5795,13 +6665,16 @@
         <v>389</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>275</v>
       </c>
@@ -5809,13 +6682,16 @@
         <v>389</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>276</v>
       </c>
@@ -5823,13 +6699,16 @@
         <v>389</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>277</v>
       </c>
@@ -5837,13 +6716,16 @@
         <v>402</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>278</v>
       </c>
@@ -5851,13 +6733,16 @@
         <v>402</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>279</v>
       </c>
@@ -5865,13 +6750,16 @@
         <v>402</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>280</v>
       </c>
@@ -5879,13 +6767,16 @@
         <v>402</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>281</v>
       </c>
@@ -5893,13 +6784,16 @@
         <v>402</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>282</v>
       </c>
@@ -5907,13 +6801,16 @@
         <v>402</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>283</v>
       </c>
@@ -5921,13 +6818,16 @@
         <v>402</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>284</v>
       </c>
@@ -5935,13 +6835,16 @@
         <v>402</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>285</v>
       </c>
@@ -5949,13 +6852,16 @@
         <v>402</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>286</v>
       </c>
@@ -5963,13 +6869,16 @@
         <v>402</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>287</v>
       </c>
@@ -5977,13 +6886,16 @@
         <v>389</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>288</v>
       </c>
@@ -5991,13 +6903,16 @@
         <v>391</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>289</v>
       </c>
@@ -6005,13 +6920,16 @@
         <v>391</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>290</v>
       </c>
@@ -6019,13 +6937,16 @@
         <v>391</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>291</v>
       </c>
@@ -6033,13 +6954,16 @@
         <v>403</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>292</v>
       </c>
@@ -6047,13 +6971,16 @@
         <v>403</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>293</v>
       </c>
@@ -6061,13 +6988,16 @@
         <v>403</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>294</v>
       </c>
@@ -6075,13 +7005,16 @@
         <v>403</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>295</v>
       </c>
@@ -6089,13 +7022,16 @@
         <v>403</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>296</v>
       </c>
@@ -6103,13 +7039,16 @@
         <v>391</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>297</v>
       </c>
@@ -6117,13 +7056,16 @@
         <v>398</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>298</v>
       </c>
@@ -6131,13 +7073,16 @@
         <v>389</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>299</v>
       </c>
@@ -6145,13 +7090,16 @@
         <v>389</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>300</v>
       </c>
@@ -6159,13 +7107,16 @@
         <v>389</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>301</v>
       </c>
@@ -6173,13 +7124,16 @@
         <v>389</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>302</v>
       </c>
@@ -6187,13 +7141,16 @@
         <v>389</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>303</v>
       </c>
@@ -6201,13 +7158,16 @@
         <v>389</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>304</v>
       </c>
@@ -6215,13 +7175,16 @@
         <v>391</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>305</v>
       </c>
@@ -6229,13 +7192,16 @@
         <v>389</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>306</v>
       </c>
@@ -6243,13 +7209,16 @@
         <v>390</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>307</v>
       </c>
@@ -6257,13 +7226,16 @@
         <v>390</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>308</v>
       </c>
@@ -6271,13 +7243,16 @@
         <v>390</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>309</v>
       </c>
@@ -6285,13 +7260,16 @@
         <v>390</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>310</v>
       </c>
@@ -6299,13 +7277,16 @@
         <v>390</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>311</v>
       </c>
@@ -6313,13 +7294,16 @@
         <v>390</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>312</v>
       </c>
@@ -6327,13 +7311,16 @@
         <v>390</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>313</v>
       </c>
@@ -6341,13 +7328,16 @@
         <v>404</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>314</v>
       </c>
@@ -6355,13 +7345,16 @@
         <v>404</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>315</v>
       </c>
@@ -6369,13 +7362,16 @@
         <v>404</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>316</v>
       </c>
@@ -6383,13 +7379,16 @@
         <v>404</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>317</v>
       </c>
@@ -6397,13 +7396,16 @@
         <v>404</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>318</v>
       </c>
@@ -6411,13 +7413,16 @@
         <v>404</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>319</v>
       </c>
@@ -6425,13 +7430,16 @@
         <v>404</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>320</v>
       </c>
@@ -6439,13 +7447,16 @@
         <v>404</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>321</v>
       </c>
@@ -6453,13 +7464,16 @@
         <v>404</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>322</v>
       </c>
@@ -6467,13 +7481,16 @@
         <v>404</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>323</v>
       </c>
@@ -6481,13 +7498,16 @@
         <v>404</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>324</v>
       </c>
@@ -6495,13 +7515,16 @@
         <v>404</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>325</v>
       </c>
@@ -6509,13 +7532,16 @@
         <v>404</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>326</v>
       </c>
@@ -6523,13 +7549,16 @@
         <v>405</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>327</v>
       </c>
@@ -6537,13 +7566,16 @@
         <v>405</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>328</v>
       </c>
@@ -6551,13 +7583,16 @@
         <v>405</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>329</v>
       </c>
@@ -6565,13 +7600,16 @@
         <v>405</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>330</v>
       </c>
@@ -6579,13 +7617,16 @@
         <v>405</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>331</v>
       </c>
@@ -6593,13 +7634,16 @@
         <v>405</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>332</v>
       </c>
@@ -6607,13 +7651,16 @@
         <v>389</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>333</v>
       </c>
@@ -6621,13 +7668,16 @@
         <v>389</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>334</v>
       </c>
@@ -6635,13 +7685,16 @@
         <v>389</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>335</v>
       </c>
@@ -6649,13 +7702,16 @@
         <v>389</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>336</v>
       </c>
@@ -6663,13 +7719,16 @@
         <v>406</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>337</v>
       </c>
@@ -6677,13 +7736,16 @@
         <v>420</v>
       </c>
       <c r="C343" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D343" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D343" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>338</v>
       </c>
@@ -6691,13 +7753,16 @@
         <v>406</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>339</v>
       </c>
@@ -6705,13 +7770,16 @@
         <v>420</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D345" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D345" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>340</v>
       </c>
@@ -6719,13 +7787,16 @@
         <v>406</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>341</v>
       </c>
@@ -6733,13 +7804,16 @@
         <v>406</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>342</v>
       </c>
@@ -6747,13 +7821,16 @@
         <v>406</v>
       </c>
       <c r="C348" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D348" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D348" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>343</v>
       </c>
@@ -6761,13 +7838,16 @@
         <v>406</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>344</v>
       </c>
@@ -6775,13 +7855,16 @@
         <v>406</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>345</v>
       </c>
@@ -6789,13 +7872,16 @@
         <v>406</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>346</v>
       </c>
@@ -6803,13 +7889,16 @@
         <v>406</v>
       </c>
       <c r="C352" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D352" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D352" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>347</v>
       </c>
@@ -6817,13 +7906,16 @@
         <v>406</v>
       </c>
       <c r="C353" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D353" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D353" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>348</v>
       </c>
@@ -6831,13 +7923,16 @@
         <v>406</v>
       </c>
       <c r="C354" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D354" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D354" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>349</v>
       </c>
@@ -6845,13 +7940,16 @@
         <v>406</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>350</v>
       </c>
@@ -6859,13 +7957,16 @@
         <v>406</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>351</v>
       </c>
@@ -6873,13 +7974,16 @@
         <v>406</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>352</v>
       </c>
@@ -6887,13 +7991,16 @@
         <v>412</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>353</v>
       </c>
@@ -6901,13 +8008,16 @@
         <v>412</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>354</v>
       </c>
@@ -6915,13 +8025,16 @@
         <v>393</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>355</v>
       </c>
@@ -6929,13 +8042,16 @@
         <v>393</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>356</v>
       </c>
@@ -6943,13 +8059,16 @@
         <v>389</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>357</v>
       </c>
@@ -6957,13 +8076,16 @@
         <v>389</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>358</v>
       </c>
@@ -6971,13 +8093,16 @@
         <v>389</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>359</v>
       </c>
@@ -6985,13 +8110,16 @@
         <v>389</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>360</v>
       </c>
@@ -6999,13 +8127,16 @@
         <v>389</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>361</v>
       </c>
@@ -7013,13 +8144,16 @@
         <v>389</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>362</v>
       </c>
@@ -7027,13 +8161,16 @@
         <v>389</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>363</v>
       </c>
@@ -7041,13 +8178,16 @@
         <v>389</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>364</v>
       </c>
@@ -7055,13 +8195,16 @@
         <v>389</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>365</v>
       </c>
@@ -7069,13 +8212,16 @@
         <v>389</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>366</v>
       </c>
@@ -7083,13 +8229,16 @@
         <v>389</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>367</v>
       </c>
@@ -7097,13 +8246,16 @@
         <v>388</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>368</v>
       </c>
@@ -7111,13 +8263,16 @@
         <v>388</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>369</v>
       </c>
@@ -7125,13 +8280,16 @@
         <v>388</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>370</v>
       </c>
@@ -7139,13 +8297,16 @@
         <v>413</v>
       </c>
       <c r="C376" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D376" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D376" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>371</v>
       </c>
@@ -7153,13 +8314,16 @@
         <v>413</v>
       </c>
       <c r="C377" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D377" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D377" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>372</v>
       </c>
@@ -7167,13 +8331,16 @@
         <v>413</v>
       </c>
       <c r="C378" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D378" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D378" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>373</v>
       </c>
@@ -7181,13 +8348,16 @@
         <v>388</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>374</v>
       </c>
@@ -7195,13 +8365,16 @@
         <v>413</v>
       </c>
       <c r="C380" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D380" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D380" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>375</v>
       </c>
@@ -7209,13 +8382,16 @@
         <v>388</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>376</v>
       </c>
@@ -7223,13 +8399,16 @@
         <v>388</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>377</v>
       </c>
@@ -7237,13 +8416,16 @@
         <v>413</v>
       </c>
       <c r="C383" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D383" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>378</v>
       </c>
@@ -7251,13 +8433,16 @@
         <v>388</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>379</v>
       </c>
@@ -7265,13 +8450,16 @@
         <v>413</v>
       </c>
       <c r="C385" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D385" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D385" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>380</v>
       </c>
@@ -7279,13 +8467,16 @@
         <v>388</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>381</v>
       </c>
@@ -7293,13 +8484,16 @@
         <v>388</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D387" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>382</v>
       </c>
@@ -7307,13 +8501,16 @@
         <v>388</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>383</v>
       </c>
@@ -7321,13 +8518,16 @@
         <v>389</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>384</v>
       </c>
@@ -7335,13 +8535,16 @@
         <v>389</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>385</v>
       </c>
@@ -7349,13 +8552,16 @@
         <v>390</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>386</v>
       </c>
@@ -7363,9 +8569,12 @@
         <v>390</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D392" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E392" s="3" t="s">
         <v>422</v>
       </c>
     </row>

--- a/Columns.xlsx
+++ b/Columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\DR_mod\DR_Potentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF308BD-34F0-4B1E-BF08-4CE087B90E29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7493B726-FFA1-4514-BDF5-FBDC1D44FCBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="432">
   <si>
     <t>Gruppe</t>
   </si>
@@ -1295,54 +1295,6 @@
   </si>
   <si>
     <t>drop</t>
-  </si>
-  <si>
-    <t>Fundstelle Maximallast</t>
-  </si>
-  <si>
-    <t>Fundstelle Minimalauslastung</t>
-  </si>
-  <si>
-    <t>Fundstelle Minimallast</t>
-  </si>
-  <si>
-    <t>Fundstelle Potenzial negativ Mittel</t>
-  </si>
-  <si>
-    <t>Fundstelle Potenzial negativ min</t>
-  </si>
-  <si>
-    <t>Fundstelle Potenzial negativ max</t>
-  </si>
-  <si>
-    <t>Fundstelle Potenzial positiv Mittel</t>
-  </si>
-  <si>
-    <t>Fundstelle Potenzial positiv min</t>
-  </si>
-  <si>
-    <t>Fundstelle Potenzial positiv max</t>
-  </si>
-  <si>
-    <t>Fundstelle Schaltdauer positiv</t>
-  </si>
-  <si>
-    <t>Fundstelle Schaltdauer negativ</t>
-  </si>
-  <si>
-    <t>Fundstelle Durchschnittsleistung</t>
-  </si>
-  <si>
-    <t>Fundstelle maximale Abrufhäufigkeit pro Jahr</t>
-  </si>
-  <si>
-    <t>Fundstelle maximale Abrufhäufigkeit pro Woche</t>
-  </si>
-  <si>
-    <t>Fundstelle variable Kosten</t>
-  </si>
-  <si>
-    <t>Fundstelle flexibilisierbarer Leistungsanteil</t>
   </si>
   <si>
     <t>max</t>
@@ -1570,9 +1522,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{354C2B9C-026C-4A8E-BFA8-A99211BC8AE4}" name="Spaltenname" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{2971FB75-8976-49B2-8AA0-40D58A8C0143}" name="Gruppe" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DC746ADC-2D8C-4D9E-AF3F-474CC8C65D87}" name="Numerisch?" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{AB80D3B8-0003-48F6-8701-E0CEE270263C}" name="Verzicht / Verschiebung / nicht spezifiziert" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3E84D8F4-A1D1-4685-92DE-F4B7F6FDBBBB}" name="Aggregationsregel" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DC746ADC-2D8C-4D9E-AF3F-474CC8C65D87}" name="Numerisch?" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AB80D3B8-0003-48F6-8701-E0CEE270263C}" name="Verzicht / Verschiebung / nicht spezifiziert" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3E84D8F4-A1D1-4685-92DE-F4B7F6FDBBBB}" name="Aggregationsregel" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1901,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="C390" sqref="C390"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>421</v>
@@ -1939,10 +1891,10 @@
         <v>387</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>422</v>
@@ -1956,10 +1908,10 @@
         <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>422</v>
@@ -1973,10 +1925,10 @@
         <v>387</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>422</v>
@@ -1990,10 +1942,10 @@
         <v>387</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>422</v>
@@ -2007,10 +1959,10 @@
         <v>387</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>422</v>
@@ -2024,10 +1976,10 @@
         <v>387</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>422</v>
@@ -2041,10 +1993,10 @@
         <v>387</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>422</v>
@@ -2058,10 +2010,10 @@
         <v>387</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>422</v>
@@ -2075,10 +2027,10 @@
         <v>387</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>422</v>
@@ -2092,7 +2044,7 @@
         <v>388</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>417</v>
@@ -2109,10 +2061,10 @@
         <v>389</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>424</v>
@@ -2126,10 +2078,10 @@
         <v>389</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>424</v>
@@ -2143,10 +2095,10 @@
         <v>389</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>424</v>
@@ -2160,10 +2112,10 @@
         <v>389</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>424</v>
@@ -2177,10 +2129,10 @@
         <v>389</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>424</v>
@@ -2194,10 +2146,10 @@
         <v>389</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>424</v>
@@ -2211,10 +2163,10 @@
         <v>389</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>424</v>
@@ -2228,10 +2180,10 @@
         <v>390</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>422</v>
@@ -2245,10 +2197,10 @@
         <v>391</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>422</v>
@@ -2262,10 +2214,10 @@
         <v>389</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>424</v>
@@ -2279,10 +2231,10 @@
         <v>392</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>422</v>
@@ -2296,10 +2248,10 @@
         <v>392</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>422</v>
@@ -2313,10 +2265,10 @@
         <v>392</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>422</v>
@@ -2330,10 +2282,10 @@
         <v>392</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>422</v>
@@ -2347,10 +2299,10 @@
         <v>392</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>422</v>
@@ -2364,10 +2316,10 @@
         <v>392</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>422</v>
@@ -2381,10 +2333,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>422</v>
@@ -2398,10 +2350,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>422</v>
@@ -2415,10 +2367,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>422</v>
@@ -2432,10 +2384,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>422</v>
@@ -2449,10 +2401,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>422</v>
@@ -2466,10 +2418,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>422</v>
@@ -2483,10 +2435,10 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>422</v>
@@ -2500,10 +2452,10 @@
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>422</v>
@@ -2517,10 +2469,10 @@
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>422</v>
@@ -2534,10 +2486,10 @@
         <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>422</v>
@@ -2551,10 +2503,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>422</v>
@@ -2568,10 +2520,10 @@
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>422</v>
@@ -2585,10 +2537,10 @@
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>422</v>
@@ -2602,10 +2554,10 @@
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>422</v>
@@ -2619,10 +2571,10 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>422</v>
@@ -2636,10 +2588,10 @@
         <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>422</v>
@@ -2653,10 +2605,10 @@
         <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>422</v>
@@ -2670,10 +2622,10 @@
         <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>422</v>
@@ -2687,10 +2639,10 @@
         <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>422</v>
@@ -2704,10 +2656,10 @@
         <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>422</v>
@@ -2721,10 +2673,10 @@
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>422</v>
@@ -2738,10 +2690,10 @@
         <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>422</v>
@@ -2755,10 +2707,10 @@
         <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>422</v>
@@ -2772,10 +2724,10 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>422</v>
@@ -2789,10 +2741,10 @@
         <v>28</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>422</v>
@@ -2806,10 +2758,10 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>422</v>
@@ -2823,10 +2775,10 @@
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>422</v>
@@ -2840,10 +2792,10 @@
         <v>28</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>422</v>
@@ -2857,10 +2809,10 @@
         <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>422</v>
@@ -2874,10 +2826,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>422</v>
@@ -2891,10 +2843,10 @@
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>422</v>
@@ -2908,10 +2860,10 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>422</v>
@@ -2925,10 +2877,10 @@
         <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>422</v>
@@ -2942,10 +2894,10 @@
         <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>422</v>
@@ -2959,10 +2911,10 @@
         <v>389</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>424</v>
@@ -2976,10 +2928,10 @@
         <v>389</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>424</v>
@@ -2993,10 +2945,10 @@
         <v>389</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>424</v>
@@ -3010,10 +2962,10 @@
         <v>387</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>423</v>
@@ -3027,10 +2979,10 @@
         <v>388</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>423</v>
@@ -3044,10 +2996,10 @@
         <v>389</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>423</v>
@@ -3061,10 +3013,10 @@
         <v>389</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>423</v>
@@ -3078,10 +3030,10 @@
         <v>389</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>423</v>
@@ -3095,10 +3047,10 @@
         <v>390</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>423</v>
@@ -3112,10 +3064,10 @@
         <v>391</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>423</v>
@@ -3129,10 +3081,10 @@
         <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>423</v>
@@ -3146,10 +3098,10 @@
         <v>389</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>423</v>
@@ -3163,10 +3115,10 @@
         <v>393</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>423</v>
@@ -3180,10 +3132,10 @@
         <v>389</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>423</v>
@@ -3194,13 +3146,13 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>423</v>
@@ -3211,13 +3163,13 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>423</v>
@@ -3228,13 +3180,13 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>423</v>
@@ -3245,13 +3197,13 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>423</v>
@@ -3262,13 +3214,13 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>423</v>
@@ -3279,13 +3231,13 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>423</v>
@@ -3296,10 +3248,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>417</v>
@@ -3313,10 +3265,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>417</v>
@@ -3330,10 +3282,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>417</v>
@@ -3347,13 +3299,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>423</v>
@@ -3364,13 +3316,13 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>423</v>
@@ -3381,13 +3333,13 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>423</v>
@@ -3401,10 +3353,10 @@
         <v>389</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>423</v>
@@ -3415,13 +3367,13 @@
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>399</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>423</v>
@@ -3432,13 +3384,13 @@
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>423</v>
@@ -3449,10 +3401,10 @@
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>417</v>
@@ -3466,13 +3418,13 @@
         <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>401</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>423</v>
@@ -3483,10 +3435,10 @@
         <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>402</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>417</v>
@@ -3500,13 +3452,13 @@
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>423</v>
@@ -3517,13 +3469,13 @@
         <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>403</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>423</v>
@@ -3534,13 +3486,13 @@
         <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>423</v>
@@ -3551,13 +3503,13 @@
         <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>423</v>
@@ -3568,13 +3520,13 @@
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>423</v>
@@ -3585,13 +3537,13 @@
         <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>423</v>
@@ -3602,13 +3554,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>405</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>423</v>
@@ -3619,13 +3571,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>423</v>
@@ -3636,13 +3588,13 @@
         <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>423</v>
@@ -3653,13 +3605,13 @@
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>423</v>
@@ -3673,10 +3625,10 @@
         <v>389</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>423</v>
@@ -3690,10 +3642,10 @@
         <v>389</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>423</v>
@@ -3704,13 +3656,13 @@
         <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>423</v>
@@ -3724,10 +3676,10 @@
         <v>389</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>424</v>
@@ -3741,10 +3693,10 @@
         <v>389</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>424</v>
@@ -3758,10 +3710,10 @@
         <v>393</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>422</v>
@@ -3775,13 +3727,13 @@
         <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,13 +3744,13 @@
         <v>389</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,13 +3761,13 @@
         <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3826,13 +3778,13 @@
         <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>417</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3843,13 +3795,13 @@
         <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>418</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3860,10 +3812,10 @@
         <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>422</v>
@@ -3877,10 +3829,10 @@
         <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>422</v>
@@ -3894,10 +3846,10 @@
         <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>422</v>
@@ -3911,10 +3863,10 @@
         <v>109</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>422</v>
@@ -3928,10 +3880,10 @@
         <v>394</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>422</v>
@@ -3945,10 +3897,10 @@
         <v>394</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>422</v>
@@ -3962,10 +3914,10 @@
         <v>394</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>422</v>
@@ -3979,10 +3931,10 @@
         <v>394</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>422</v>
@@ -3996,10 +3948,10 @@
         <v>394</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>422</v>
@@ -4013,10 +3965,10 @@
         <v>394</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>422</v>
@@ -4030,10 +3982,10 @@
         <v>394</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>422</v>
@@ -4047,10 +3999,10 @@
         <v>394</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>422</v>
@@ -4064,10 +4016,10 @@
         <v>395</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>422</v>
@@ -4081,10 +4033,10 @@
         <v>395</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>422</v>
@@ -4098,10 +4050,10 @@
         <v>395</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>422</v>
@@ -4115,10 +4067,10 @@
         <v>395</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>422</v>
@@ -4132,10 +4084,10 @@
         <v>396</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>422</v>
@@ -4149,10 +4101,10 @@
         <v>396</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>422</v>
@@ -4166,10 +4118,10 @@
         <v>396</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>422</v>
@@ -4183,10 +4135,10 @@
         <v>396</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>422</v>
@@ -4200,10 +4152,10 @@
         <v>398</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>423</v>
@@ -4217,7 +4169,7 @@
         <v>397</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>417</v>
@@ -4234,7 +4186,7 @@
         <v>397</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>417</v>
@@ -4251,7 +4203,7 @@
         <v>397</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>417</v>
@@ -4268,7 +4220,7 @@
         <v>397</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>417</v>
@@ -4285,7 +4237,7 @@
         <v>397</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>417</v>
@@ -4302,7 +4254,7 @@
         <v>397</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>417</v>
@@ -4319,7 +4271,7 @@
         <v>397</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>417</v>
@@ -4336,7 +4288,7 @@
         <v>397</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>417</v>
@@ -4353,7 +4305,7 @@
         <v>397</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>417</v>
@@ -4370,7 +4322,7 @@
         <v>397</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>417</v>
@@ -4387,7 +4339,7 @@
         <v>397</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>417</v>
@@ -4404,7 +4356,7 @@
         <v>397</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>417</v>
@@ -4421,7 +4373,7 @@
         <v>397</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>417</v>
@@ -4438,7 +4390,7 @@
         <v>397</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>417</v>
@@ -4455,7 +4407,7 @@
         <v>407</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>417</v>
@@ -4472,7 +4424,7 @@
         <v>407</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>417</v>
@@ -4489,7 +4441,7 @@
         <v>407</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>417</v>
@@ -4506,7 +4458,7 @@
         <v>407</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>417</v>
@@ -4523,7 +4475,7 @@
         <v>407</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>417</v>
@@ -4540,7 +4492,7 @@
         <v>407</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>417</v>
@@ -4557,7 +4509,7 @@
         <v>407</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>417</v>
@@ -4574,7 +4526,7 @@
         <v>407</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>417</v>
@@ -4591,7 +4543,7 @@
         <v>407</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>417</v>
@@ -4608,7 +4560,7 @@
         <v>408</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>417</v>
@@ -4625,7 +4577,7 @@
         <v>408</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>417</v>
@@ -4642,7 +4594,7 @@
         <v>408</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>417</v>
@@ -4659,7 +4611,7 @@
         <v>408</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>417</v>
@@ -4676,7 +4628,7 @@
         <v>408</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>417</v>
@@ -4693,7 +4645,7 @@
         <v>408</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>417</v>
@@ -4710,7 +4662,7 @@
         <v>408</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>417</v>
@@ -4727,7 +4679,7 @@
         <v>408</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>417</v>
@@ -4744,7 +4696,7 @@
         <v>408</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>417</v>
@@ -4761,7 +4713,7 @@
         <v>397</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>417</v>
@@ -4778,7 +4730,7 @@
         <v>397</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>417</v>
@@ -4795,7 +4747,7 @@
         <v>397</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>417</v>
@@ -4812,7 +4764,7 @@
         <v>397</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>417</v>
@@ -4829,7 +4781,7 @@
         <v>397</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>417</v>
@@ -4846,7 +4798,7 @@
         <v>389</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>417</v>
@@ -4863,7 +4815,7 @@
         <v>407</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>417</v>
@@ -4880,7 +4832,7 @@
         <v>407</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>417</v>
@@ -4897,7 +4849,7 @@
         <v>407</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>417</v>
@@ -4914,7 +4866,7 @@
         <v>407</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>417</v>
@@ -4931,7 +4883,7 @@
         <v>407</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>417</v>
@@ -4948,7 +4900,7 @@
         <v>408</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>417</v>
@@ -4965,7 +4917,7 @@
         <v>408</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>417</v>
@@ -4982,7 +4934,7 @@
         <v>398</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>418</v>
@@ -4999,7 +4951,7 @@
         <v>398</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>417</v>
@@ -5016,7 +4968,7 @@
         <v>398</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>417</v>
@@ -5033,7 +4985,7 @@
         <v>398</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>417</v>
@@ -5050,7 +5002,7 @@
         <v>414</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>418</v>
@@ -5067,7 +5019,7 @@
         <v>398</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>417</v>
@@ -5084,7 +5036,7 @@
         <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>417</v>
@@ -5101,7 +5053,7 @@
         <v>398</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>417</v>
@@ -5118,7 +5070,7 @@
         <v>414</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>418</v>
@@ -5135,7 +5087,7 @@
         <v>398</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>417</v>
@@ -5152,7 +5104,7 @@
         <v>414</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>418</v>
@@ -5169,7 +5121,7 @@
         <v>398</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>417</v>
@@ -5186,7 +5138,7 @@
         <v>415</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>418</v>
@@ -5203,7 +5155,7 @@
         <v>398</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>417</v>
@@ -5220,7 +5172,7 @@
         <v>398</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>417</v>
@@ -5237,7 +5189,7 @@
         <v>414</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>418</v>
@@ -5254,7 +5206,7 @@
         <v>398</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>417</v>
@@ -5271,7 +5223,7 @@
         <v>414</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>418</v>
@@ -5288,7 +5240,7 @@
         <v>398</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>417</v>
@@ -5305,7 +5257,7 @@
         <v>414</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>418</v>
@@ -5322,7 +5274,7 @@
         <v>398</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>417</v>
@@ -5339,7 +5291,7 @@
         <v>414</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>418</v>
@@ -5356,7 +5308,7 @@
         <v>398</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>417</v>
@@ -5373,7 +5325,7 @@
         <v>414</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>418</v>
@@ -5390,7 +5342,7 @@
         <v>409</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>417</v>
@@ -5407,7 +5359,7 @@
         <v>409</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>417</v>
@@ -5424,7 +5376,7 @@
         <v>415</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>418</v>
@@ -5441,7 +5393,7 @@
         <v>409</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>417</v>
@@ -5458,7 +5410,7 @@
         <v>415</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>418</v>
@@ -5475,7 +5427,7 @@
         <v>409</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>417</v>
@@ -5492,7 +5444,7 @@
         <v>415</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>418</v>
@@ -5509,7 +5461,7 @@
         <v>409</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>417</v>
@@ -5526,7 +5478,7 @@
         <v>415</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>418</v>
@@ -5543,7 +5495,7 @@
         <v>409</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>417</v>
@@ -5560,7 +5512,7 @@
         <v>415</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>418</v>
@@ -5577,7 +5529,7 @@
         <v>409</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>417</v>
@@ -5594,7 +5546,7 @@
         <v>415</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>418</v>
@@ -5611,7 +5563,7 @@
         <v>409</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>417</v>
@@ -5628,7 +5580,7 @@
         <v>415</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>418</v>
@@ -5645,7 +5597,7 @@
         <v>409</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>417</v>
@@ -5662,7 +5614,7 @@
         <v>415</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>418</v>
@@ -5679,7 +5631,7 @@
         <v>410</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>417</v>
@@ -5696,7 +5648,7 @@
         <v>410</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>417</v>
@@ -5713,7 +5665,7 @@
         <v>416</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>418</v>
@@ -5730,7 +5682,7 @@
         <v>410</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>417</v>
@@ -5747,7 +5699,7 @@
         <v>416</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>418</v>
@@ -5764,7 +5716,7 @@
         <v>410</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>417</v>
@@ -5781,7 +5733,7 @@
         <v>416</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>418</v>
@@ -5798,7 +5750,7 @@
         <v>410</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>417</v>
@@ -5815,7 +5767,7 @@
         <v>416</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>418</v>
@@ -5832,7 +5784,7 @@
         <v>410</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>417</v>
@@ -5849,7 +5801,7 @@
         <v>416</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>418</v>
@@ -5866,7 +5818,7 @@
         <v>410</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>417</v>
@@ -5883,7 +5835,7 @@
         <v>416</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>418</v>
@@ -5900,7 +5852,7 @@
         <v>410</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>417</v>
@@ -5917,7 +5869,7 @@
         <v>416</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>418</v>
@@ -5934,7 +5886,7 @@
         <v>410</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>417</v>
@@ -5951,7 +5903,7 @@
         <v>416</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>418</v>
@@ -5968,7 +5920,7 @@
         <v>398</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>417</v>
@@ -5985,7 +5937,7 @@
         <v>416</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>418</v>
@@ -6002,7 +5954,7 @@
         <v>398</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>417</v>
@@ -6019,7 +5971,7 @@
         <v>416</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>418</v>
@@ -6036,7 +5988,7 @@
         <v>398</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>417</v>
@@ -6053,7 +6005,7 @@
         <v>416</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>418</v>
@@ -6070,7 +6022,7 @@
         <v>398</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>417</v>
@@ -6087,7 +6039,7 @@
         <v>398</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>417</v>
@@ -6104,7 +6056,7 @@
         <v>389</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>417</v>
@@ -6121,7 +6073,7 @@
         <v>409</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>417</v>
@@ -6138,7 +6090,7 @@
         <v>415</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>417</v>
@@ -6155,7 +6107,7 @@
         <v>409</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>418</v>
@@ -6172,7 +6124,7 @@
         <v>409</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>417</v>
@@ -6189,7 +6141,7 @@
         <v>409</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>417</v>
@@ -6206,7 +6158,7 @@
         <v>415</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>418</v>
@@ -6223,7 +6175,7 @@
         <v>409</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>417</v>
@@ -6240,7 +6192,7 @@
         <v>409</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>417</v>
@@ -6257,7 +6209,7 @@
         <v>410</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>417</v>
@@ -6274,7 +6226,7 @@
         <v>416</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>418</v>
@@ -6291,7 +6243,7 @@
         <v>410</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>417</v>
@@ -6308,10 +6260,10 @@
         <v>253</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>424</v>
@@ -6325,10 +6277,10 @@
         <v>399</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>424</v>
@@ -6342,10 +6294,10 @@
         <v>399</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>424</v>
@@ -6359,10 +6311,10 @@
         <v>399</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>424</v>
@@ -6376,10 +6328,10 @@
         <v>391</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>424</v>
@@ -6393,7 +6345,7 @@
         <v>411</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>417</v>
@@ -6410,7 +6362,7 @@
         <v>411</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>417</v>
@@ -6427,7 +6379,7 @@
         <v>411</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>417</v>
@@ -6444,7 +6396,7 @@
         <v>400</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>417</v>
@@ -6461,7 +6413,7 @@
         <v>419</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>418</v>
@@ -6478,7 +6430,7 @@
         <v>400</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>417</v>
@@ -6495,7 +6447,7 @@
         <v>419</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>418</v>
@@ -6512,7 +6464,7 @@
         <v>400</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>417</v>
@@ -6529,7 +6481,7 @@
         <v>419</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>418</v>
@@ -6546,13 +6498,13 @@
         <v>267</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6563,10 +6515,10 @@
         <v>401</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>423</v>
@@ -6580,10 +6532,10 @@
         <v>401</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>423</v>
@@ -6597,10 +6549,10 @@
         <v>401</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>423</v>
@@ -6614,10 +6566,10 @@
         <v>401</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>423</v>
@@ -6631,10 +6583,10 @@
         <v>401</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>423</v>
@@ -6648,10 +6600,10 @@
         <v>401</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>423</v>
@@ -6665,10 +6617,10 @@
         <v>389</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>424</v>
@@ -6682,10 +6634,10 @@
         <v>389</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>424</v>
@@ -6699,10 +6651,10 @@
         <v>389</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>424</v>
@@ -6716,7 +6668,7 @@
         <v>402</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>417</v>
@@ -6733,7 +6685,7 @@
         <v>402</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>417</v>
@@ -6750,7 +6702,7 @@
         <v>402</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>417</v>
@@ -6767,7 +6719,7 @@
         <v>402</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>417</v>
@@ -6784,7 +6736,7 @@
         <v>402</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>417</v>
@@ -6801,7 +6753,7 @@
         <v>402</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>417</v>
@@ -6818,7 +6770,7 @@
         <v>402</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>417</v>
@@ -6835,7 +6787,7 @@
         <v>402</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>417</v>
@@ -6852,7 +6804,7 @@
         <v>402</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>417</v>
@@ -6869,7 +6821,7 @@
         <v>402</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>417</v>
@@ -6886,7 +6838,7 @@
         <v>389</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>417</v>
@@ -6903,10 +6855,10 @@
         <v>391</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>422</v>
@@ -6920,10 +6872,10 @@
         <v>391</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>422</v>
@@ -6937,10 +6889,10 @@
         <v>391</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>422</v>
@@ -6954,10 +6906,10 @@
         <v>403</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>422</v>
@@ -6971,10 +6923,10 @@
         <v>403</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>422</v>
@@ -6988,10 +6940,10 @@
         <v>403</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>422</v>
@@ -7005,10 +6957,10 @@
         <v>403</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>422</v>
@@ -7022,10 +6974,10 @@
         <v>403</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>422</v>
@@ -7039,10 +6991,10 @@
         <v>391</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>424</v>
@@ -7056,10 +7008,10 @@
         <v>398</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>423</v>
@@ -7073,10 +7025,10 @@
         <v>389</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>422</v>
@@ -7090,10 +7042,10 @@
         <v>389</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>422</v>
@@ -7107,10 +7059,10 @@
         <v>389</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E306" s="3" t="s">
         <v>422</v>
@@ -7124,10 +7076,10 @@
         <v>389</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>422</v>
@@ -7141,10 +7093,10 @@
         <v>389</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>422</v>
@@ -7158,10 +7110,10 @@
         <v>389</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>422</v>
@@ -7175,10 +7127,10 @@
         <v>391</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>422</v>
@@ -7192,10 +7144,10 @@
         <v>389</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>424</v>
@@ -7209,10 +7161,10 @@
         <v>390</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>422</v>
@@ -7226,10 +7178,10 @@
         <v>390</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>422</v>
@@ -7243,10 +7195,10 @@
         <v>390</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>422</v>
@@ -7260,10 +7212,10 @@
         <v>390</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>422</v>
@@ -7277,10 +7229,10 @@
         <v>390</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>422</v>
@@ -7294,10 +7246,10 @@
         <v>390</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>422</v>
@@ -7311,10 +7263,10 @@
         <v>390</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E318" s="3" t="s">
         <v>422</v>
@@ -7328,10 +7280,10 @@
         <v>404</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>422</v>
@@ -7345,10 +7297,10 @@
         <v>404</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>422</v>
@@ -7362,10 +7314,10 @@
         <v>404</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>422</v>
@@ -7379,10 +7331,10 @@
         <v>404</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>422</v>
@@ -7396,10 +7348,10 @@
         <v>404</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>422</v>
@@ -7413,10 +7365,10 @@
         <v>404</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>422</v>
@@ -7430,10 +7382,10 @@
         <v>404</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>422</v>
@@ -7447,10 +7399,10 @@
         <v>404</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>422</v>
@@ -7464,10 +7416,10 @@
         <v>404</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>422</v>
@@ -7481,10 +7433,10 @@
         <v>404</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>422</v>
@@ -7498,10 +7450,10 @@
         <v>404</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>422</v>
@@ -7515,10 +7467,10 @@
         <v>404</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>422</v>
@@ -7532,10 +7484,10 @@
         <v>404</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>422</v>
@@ -7549,10 +7501,10 @@
         <v>405</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>423</v>
@@ -7566,10 +7518,10 @@
         <v>405</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>423</v>
@@ -7583,10 +7535,10 @@
         <v>405</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>423</v>
@@ -7600,10 +7552,10 @@
         <v>405</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>423</v>
@@ -7617,10 +7569,10 @@
         <v>405</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>423</v>
@@ -7634,10 +7586,10 @@
         <v>405</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>423</v>
@@ -7651,10 +7603,10 @@
         <v>389</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>423</v>
@@ -7668,10 +7620,10 @@
         <v>389</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>423</v>
@@ -7685,10 +7637,10 @@
         <v>389</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>423</v>
@@ -7702,10 +7654,10 @@
         <v>389</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>423</v>
@@ -7719,7 +7671,7 @@
         <v>406</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>417</v>
@@ -7736,7 +7688,7 @@
         <v>420</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>108</v>
@@ -7753,7 +7705,7 @@
         <v>406</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>417</v>
@@ -7770,7 +7722,7 @@
         <v>420</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>108</v>
@@ -7787,7 +7739,7 @@
         <v>406</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>417</v>
@@ -7804,7 +7756,7 @@
         <v>406</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>417</v>
@@ -7821,7 +7773,7 @@
         <v>406</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>418</v>
@@ -7838,7 +7790,7 @@
         <v>406</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>417</v>
@@ -7855,7 +7807,7 @@
         <v>406</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>417</v>
@@ -7872,7 +7824,7 @@
         <v>406</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>417</v>
@@ -7889,7 +7841,7 @@
         <v>406</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>418</v>
@@ -7906,7 +7858,7 @@
         <v>406</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>418</v>
@@ -7923,7 +7875,7 @@
         <v>406</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>418</v>
@@ -7940,7 +7892,7 @@
         <v>406</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>417</v>
@@ -7957,7 +7909,7 @@
         <v>406</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>417</v>
@@ -7974,7 +7926,7 @@
         <v>406</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>417</v>
@@ -7991,7 +7943,7 @@
         <v>412</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>417</v>
@@ -8008,7 +7960,7 @@
         <v>412</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>417</v>
@@ -8025,10 +7977,10 @@
         <v>393</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>422</v>
@@ -8042,10 +7994,10 @@
         <v>393</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>422</v>
@@ -8059,10 +8011,10 @@
         <v>389</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>423</v>
@@ -8076,10 +8028,10 @@
         <v>389</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>423</v>
@@ -8093,10 +8045,10 @@
         <v>389</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>423</v>
@@ -8110,10 +8062,10 @@
         <v>389</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>423</v>
@@ -8127,10 +8079,10 @@
         <v>389</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>423</v>
@@ -8144,10 +8096,10 @@
         <v>389</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>422</v>
@@ -8161,10 +8113,10 @@
         <v>389</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>422</v>
@@ -8178,10 +8130,10 @@
         <v>389</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>422</v>
@@ -8195,10 +8147,10 @@
         <v>389</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>422</v>
@@ -8212,10 +8164,10 @@
         <v>389</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>422</v>
@@ -8229,10 +8181,10 @@
         <v>389</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>424</v>
@@ -8246,7 +8198,7 @@
         <v>388</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>417</v>
@@ -8263,7 +8215,7 @@
         <v>388</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>417</v>
@@ -8280,7 +8232,7 @@
         <v>388</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>417</v>
@@ -8297,7 +8249,7 @@
         <v>413</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>418</v>
@@ -8314,7 +8266,7 @@
         <v>413</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>418</v>
@@ -8331,7 +8283,7 @@
         <v>413</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>418</v>
@@ -8348,7 +8300,7 @@
         <v>388</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>417</v>
@@ -8365,7 +8317,7 @@
         <v>413</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>418</v>
@@ -8382,7 +8334,7 @@
         <v>388</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>417</v>
@@ -8399,7 +8351,7 @@
         <v>388</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>417</v>
@@ -8416,7 +8368,7 @@
         <v>413</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>418</v>
@@ -8433,7 +8385,7 @@
         <v>388</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>417</v>
@@ -8450,7 +8402,7 @@
         <v>413</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>418</v>
@@ -8467,7 +8419,7 @@
         <v>388</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>417</v>
@@ -8484,7 +8436,7 @@
         <v>388</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>417</v>
@@ -8501,7 +8453,7 @@
         <v>388</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>417</v>
@@ -8518,10 +8470,10 @@
         <v>389</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>424</v>
@@ -8535,10 +8487,10 @@
         <v>389</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>424</v>
@@ -8552,10 +8504,10 @@
         <v>390</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>422</v>
@@ -8569,10 +8521,10 @@
         <v>390</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>422</v>

--- a/Columns.xlsx
+++ b/Columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\DR_mod\DR_Potentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7493B726-FFA1-4514-BDF5-FBDC1D44FCBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15CB286-1DDA-45E0-B219-ADC5C3A0D871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1853,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Columns.xlsx
+++ b/Columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\DR_mod\DR_Potentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15CB286-1DDA-45E0-B219-ADC5C3A0D871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E5DE4-22FE-4729-B76C-3FBA282A4647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1853,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +3903,7 @@
         <v>428</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>428</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,7 +3937,7 @@
         <v>428</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,7 +3954,7 @@
         <v>428</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,7 +3971,7 @@
         <v>428</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,7 +3988,7 @@
         <v>428</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
         <v>428</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
         <v>428</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4107,7 +4107,7 @@
         <v>428</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>428</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
         <v>428</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -6283,7 +6283,7 @@
         <v>428</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6300,7 +6300,7 @@
         <v>428</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6317,7 +6317,7 @@
         <v>428</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -7770,7 +7770,7 @@
         <v>342</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>430</v>
@@ -7838,7 +7838,7 @@
         <v>346</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>430</v>
@@ -7855,7 +7855,7 @@
         <v>347</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>430</v>
@@ -7872,7 +7872,7 @@
         <v>348</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>430</v>
